--- a/data/Resultados_Sup_2025.xlsx
+++ b/data/Resultados_Sup_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COMPUMAX\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D9B4D3-1857-4BDF-A989-A78B1B17E1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586816BF-4CAB-4FF1-BDC8-25D9CF72C304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12132" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12152" uniqueCount="202">
   <si>
     <t>GRUPO</t>
   </si>
@@ -627,6 +627,9 @@
   <si>
     <t>VELASQUEZ CARO MIGUEL ANGEL</t>
   </si>
+  <si>
+    <t>SANCHEZ VILLA KELLY JOHANA</t>
+  </si>
 </sst>
 </file>
 
@@ -990,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L1521"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C710" sqref="C710"/>
+    <sheetView tabSelected="1" topLeftCell="A681" workbookViewId="0">
+      <selection activeCell="E686" sqref="E686"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26882,8 +26885,14 @@
       <c r="A682" t="s">
         <v>89</v>
       </c>
+      <c r="B682">
+        <v>1150690420</v>
+      </c>
+      <c r="C682" t="s">
+        <v>201</v>
+      </c>
       <c r="D682">
-        <v>240447</v>
+        <v>210185</v>
       </c>
       <c r="E682" t="s">
         <v>15</v>
@@ -26914,8 +26923,14 @@
       <c r="A683" t="s">
         <v>89</v>
       </c>
+      <c r="B683">
+        <v>1150690420</v>
+      </c>
+      <c r="C683" t="s">
+        <v>201</v>
+      </c>
       <c r="D683">
-        <v>240447</v>
+        <v>210185</v>
       </c>
       <c r="E683" t="s">
         <v>15</v>
@@ -26946,8 +26961,14 @@
       <c r="A684" t="s">
         <v>89</v>
       </c>
+      <c r="B684">
+        <v>1150690420</v>
+      </c>
+      <c r="C684" t="s">
+        <v>201</v>
+      </c>
       <c r="D684">
-        <v>240447</v>
+        <v>210185</v>
       </c>
       <c r="E684" t="s">
         <v>15</v>
@@ -26978,8 +26999,14 @@
       <c r="A685" t="s">
         <v>89</v>
       </c>
+      <c r="B685">
+        <v>1150690420</v>
+      </c>
+      <c r="C685" t="s">
+        <v>201</v>
+      </c>
       <c r="D685">
-        <v>240447</v>
+        <v>210185</v>
       </c>
       <c r="E685" t="s">
         <v>15</v>
@@ -27010,8 +27037,14 @@
       <c r="A686" t="s">
         <v>89</v>
       </c>
+      <c r="B686">
+        <v>1150690420</v>
+      </c>
+      <c r="C686" t="s">
+        <v>201</v>
+      </c>
       <c r="D686">
-        <v>240447</v>
+        <v>210185</v>
       </c>
       <c r="E686" t="s">
         <v>15</v>
@@ -27042,8 +27075,14 @@
       <c r="A687" t="s">
         <v>89</v>
       </c>
+      <c r="B687">
+        <v>1150690420</v>
+      </c>
+      <c r="C687" t="s">
+        <v>201</v>
+      </c>
       <c r="D687">
-        <v>240447</v>
+        <v>210185</v>
       </c>
       <c r="E687" t="s">
         <v>15</v>
@@ -27074,8 +27113,14 @@
       <c r="A688" t="s">
         <v>89</v>
       </c>
+      <c r="B688">
+        <v>1150690420</v>
+      </c>
+      <c r="C688" t="s">
+        <v>201</v>
+      </c>
       <c r="D688">
-        <v>240447</v>
+        <v>210185</v>
       </c>
       <c r="E688" t="s">
         <v>15</v>
@@ -27106,8 +27151,14 @@
       <c r="A689" t="s">
         <v>89</v>
       </c>
+      <c r="B689">
+        <v>1150690420</v>
+      </c>
+      <c r="C689" t="s">
+        <v>201</v>
+      </c>
       <c r="D689">
-        <v>240447</v>
+        <v>210185</v>
       </c>
       <c r="E689" t="s">
         <v>15</v>
@@ -27138,8 +27189,14 @@
       <c r="A690" t="s">
         <v>89</v>
       </c>
+      <c r="B690">
+        <v>1150690420</v>
+      </c>
+      <c r="C690" t="s">
+        <v>201</v>
+      </c>
       <c r="D690">
-        <v>240447</v>
+        <v>210185</v>
       </c>
       <c r="E690" t="s">
         <v>15</v>
@@ -27170,8 +27227,14 @@
       <c r="A691" t="s">
         <v>89</v>
       </c>
+      <c r="B691">
+        <v>1150690420</v>
+      </c>
+      <c r="C691" t="s">
+        <v>201</v>
+      </c>
       <c r="D691">
-        <v>240447</v>
+        <v>210185</v>
       </c>
       <c r="E691" t="s">
         <v>15</v>
@@ -27202,8 +27265,14 @@
       <c r="A692" t="s">
         <v>89</v>
       </c>
+      <c r="B692">
+        <v>1150690420</v>
+      </c>
+      <c r="C692" t="s">
+        <v>201</v>
+      </c>
       <c r="D692">
-        <v>240447</v>
+        <v>210185</v>
       </c>
       <c r="E692" t="s">
         <v>15</v>
@@ -27234,8 +27303,14 @@
       <c r="A693" t="s">
         <v>89</v>
       </c>
+      <c r="B693">
+        <v>1150690420</v>
+      </c>
+      <c r="C693" t="s">
+        <v>201</v>
+      </c>
       <c r="D693">
-        <v>240447</v>
+        <v>210185</v>
       </c>
       <c r="E693" t="s">
         <v>15</v>
@@ -27266,8 +27341,14 @@
       <c r="A694" t="s">
         <v>89</v>
       </c>
+      <c r="B694">
+        <v>1150690420</v>
+      </c>
+      <c r="C694" t="s">
+        <v>201</v>
+      </c>
       <c r="D694">
-        <v>240447</v>
+        <v>210185</v>
       </c>
       <c r="E694" t="s">
         <v>15</v>
@@ -27298,8 +27379,14 @@
       <c r="A695" t="s">
         <v>89</v>
       </c>
+      <c r="B695">
+        <v>1150690420</v>
+      </c>
+      <c r="C695" t="s">
+        <v>201</v>
+      </c>
       <c r="D695">
-        <v>240447</v>
+        <v>210185</v>
       </c>
       <c r="E695" t="s">
         <v>15</v>
@@ -27330,8 +27417,14 @@
       <c r="A696" t="s">
         <v>89</v>
       </c>
+      <c r="B696">
+        <v>1150690420</v>
+      </c>
+      <c r="C696" t="s">
+        <v>201</v>
+      </c>
       <c r="D696">
-        <v>240447</v>
+        <v>210185</v>
       </c>
       <c r="E696" t="s">
         <v>15</v>
@@ -27362,8 +27455,14 @@
       <c r="A697" t="s">
         <v>89</v>
       </c>
+      <c r="B697">
+        <v>1150690420</v>
+      </c>
+      <c r="C697" t="s">
+        <v>201</v>
+      </c>
       <c r="D697">
-        <v>240447</v>
+        <v>210185</v>
       </c>
       <c r="E697" t="s">
         <v>15</v>
@@ -27394,8 +27493,14 @@
       <c r="A698" t="s">
         <v>89</v>
       </c>
+      <c r="B698">
+        <v>1150690420</v>
+      </c>
+      <c r="C698" t="s">
+        <v>201</v>
+      </c>
       <c r="D698">
-        <v>240447</v>
+        <v>210185</v>
       </c>
       <c r="E698" t="s">
         <v>15</v>
@@ -27426,8 +27531,14 @@
       <c r="A699" t="s">
         <v>89</v>
       </c>
+      <c r="B699">
+        <v>1150690420</v>
+      </c>
+      <c r="C699" t="s">
+        <v>201</v>
+      </c>
       <c r="D699">
-        <v>240447</v>
+        <v>210185</v>
       </c>
       <c r="E699" t="s">
         <v>15</v>
@@ -27458,8 +27569,14 @@
       <c r="A700" t="s">
         <v>89</v>
       </c>
+      <c r="B700">
+        <v>1150690420</v>
+      </c>
+      <c r="C700" t="s">
+        <v>201</v>
+      </c>
       <c r="D700">
-        <v>240447</v>
+        <v>210185</v>
       </c>
       <c r="E700" t="s">
         <v>15</v>
@@ -27490,8 +27607,14 @@
       <c r="A701" t="s">
         <v>89</v>
       </c>
+      <c r="B701">
+        <v>1150690420</v>
+      </c>
+      <c r="C701" t="s">
+        <v>201</v>
+      </c>
       <c r="D701">
-        <v>240447</v>
+        <v>210185</v>
       </c>
       <c r="E701" t="s">
         <v>15</v>
